--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1420,6 +1420,60 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-07 11:11:49</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-07 11:12:50</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,21 +51,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="13"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="13"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="13"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="13"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="13"/>
+    <col width="13" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1474,10 +1474,2197 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-09 18:49:41</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Chat trực tiếp với Bot</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-09 19:30:27</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-09 23:36:30</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:30</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:42</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:44</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:46</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:49</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:51</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:53</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:28:56</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:29:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 09:29:03</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 13:44:07</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 13:41:24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:13:46</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:14:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:31</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:33</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:36</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:37</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:39</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:40</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:42</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:54</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 16:16:58</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:39:53</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:15</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:29</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:33</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:35</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:43</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:45</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:46</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:47</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:49</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-10 19:40:51</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 10:18:15</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 12:50:00</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 12:50:05</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 12:50:14</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 12:53:01</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-11 18:59:33</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:36:24</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:49:23</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:35</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:38</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:43</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:45</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:49</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 11:58:53</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 12:00:16</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 12:00:22</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 12:33:08</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 21:47:30</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daishotvlg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-12 21:54:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihost vlg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 15:07:24</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 15:07:44</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 15:10:32</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 15:11:01</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 16:25:31</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 16:47:48</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 16:49:11</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 16:49:18</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 18:59:59</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 20:04:35</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 20:04:39</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 20:04:42</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-13 20:04:44</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-14 06:12:27</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-14 06:58:35</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-14 06:58:57</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Lập Thuận</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-14 18:22:02</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:08</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:10</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:13</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:23</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:25</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:28</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:30</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Bảo Bảo</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-15 12:08:33</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,6 +3661,33 @@
         </is>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Anh</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-17 17:40:36</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Group: Test app</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,7 @@
     <col width="13" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="13" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -478,7 +479,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -488,12 +489,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-06 11:32:19</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hello</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -505,22 +506,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hshshdhdh</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:46:27</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:33</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hello</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,22 +533,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> test</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:46:45</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hello</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -559,7 +560,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -569,12 +570,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:50:42</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505024809</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -586,22 +587,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fblevandanh</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:50:58</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:45</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505024809</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -613,22 +614,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> fblevandanh</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:52:05</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:46</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 500570880</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -640,7 +641,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -650,12 +651,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:52:52</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:47</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505024809</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -667,7 +668,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -677,12 +678,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:53:36</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:49</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505024809</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -694,22 +695,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlgdhdhdbdb</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 09:55:18</t>
+          <t xml:space="preserve"> 2023-07-10 19:40:51</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +722,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Lập Thuận</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -731,12 +732,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:00:35</t>
+          <t xml:space="preserve"> 2023-07-11 10:18:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 505024809</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -748,7 +749,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -758,12 +759,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:01:01</t>
+          <t xml:space="preserve"> 2023-07-11 12:50:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,22 +776,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:01:50</t>
+          <t xml:space="preserve"> 2023-07-11 12:50:05</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -802,7 +803,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -812,12 +813,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:01:50</t>
+          <t xml:space="preserve"> 2023-07-11 12:50:14</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -829,22 +830,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlgjshshshsss</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:04:31</t>
+          <t xml:space="preserve"> 2023-07-11 12:53:01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -856,7 +857,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:04:31</t>
+          <t xml:space="preserve"> 2023-07-11 18:59:33</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -893,12 +894,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:18:46</t>
+          <t xml:space="preserve"> 2023-07-12 11:36:24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -920,12 +921,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:31:47</t>
+          <t xml:space="preserve"> 2023-07-12 11:49:23</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước không thành công - hãy thực hiện lại</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -937,7 +938,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -947,12 +948,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:32:22</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:35</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước không thành công - hãy thực hiện lại</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -964,22 +965,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:34:08</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:38</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước không thành công - hãy thực hiện lại</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -991,7 +992,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1001,12 +1002,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:52:06</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:43</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1018,7 +1019,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1028,12 +1029,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:53:13</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1045,7 +1046,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1055,12 +1056,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:53:37</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:49</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1072,7 +1073,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1082,7 +1083,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:55:48</t>
+          <t xml:space="preserve"> 2023-07-12 11:58:53</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1099,22 +1100,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:57:10</t>
+          <t xml:space="preserve"> 2023-07-12 12:00:16</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1126,7 +1127,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1136,7 +1137,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:57:33</t>
+          <t xml:space="preserve"> 2023-07-12 12:00:22</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1153,7 +1154,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Lập Thuận</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1163,7 +1164,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:57:59</t>
+          <t xml:space="preserve"> 2023-07-12 12:33:08</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1190,12 +1191,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:58:11</t>
+          <t xml:space="preserve"> 2023-07-12 21:47:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1212,17 +1213,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> daishotvlg</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:59:19</t>
+          <t xml:space="preserve"> 2023-07-12 21:54:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1234,22 +1235,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> daihost vlg</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 10:59:20</t>
+          <t xml:space="preserve"> 2023-07-13 15:07:24</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1261,7 +1262,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1271,7 +1272,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:00:15</t>
+          <t xml:space="preserve"> 2023-07-13 15:07:44</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1298,7 +1299,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:00:15</t>
+          <t xml:space="preserve"> 2023-07-13 15:10:32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1315,22 +1316,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlgdhhdhdhd</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:00:59</t>
+          <t xml:space="preserve"> 2023-07-13 15:11:01</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1347,17 +1348,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlgdhhdhdhd</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:01:15</t>
+          <t xml:space="preserve"> 2023-07-13 16:25:31</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1369,7 +1370,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Lập Thuận</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1379,7 +1380,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:01:14</t>
+          <t xml:space="preserve"> 2023-07-13 16:47:48</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1396,7 +1397,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:01:52</t>
+          <t xml:space="preserve"> 2023-07-13 16:49:11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1423,22 +1424,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:11:49</t>
+          <t xml:space="preserve"> 2023-07-13 16:49:18</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1460,12 +1461,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-07 11:12:50</t>
+          <t xml:space="preserve"> 2023-07-13 18:59:59</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1477,49 +1478,49 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg </t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-09 18:49:41</t>
+          <t xml:space="preserve"> 2023-07-13 20:04:35</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mở cước thành công</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Chat trực tiếp với Bot</t>
+          <t>Group: Test app</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-09 19:30:27</t>
+          <t xml:space="preserve"> 2023-07-13 20:04:39</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1531,7 +1532,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1541,7 +1542,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-09 23:36:30</t>
+          <t xml:space="preserve"> 2023-07-13 20:04:42</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1558,7 +1559,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1568,7 +1569,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:30</t>
+          <t xml:space="preserve"> 2023-07-13 20:04:44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1595,7 +1596,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:42</t>
+          <t xml:space="preserve"> 2023-07-14 06:12:27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1612,7 +1613,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1622,7 +1623,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:44</t>
+          <t xml:space="preserve"> 2023-07-14 06:58:35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1639,7 +1640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1649,7 +1650,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:46</t>
+          <t xml:space="preserve"> 2023-07-14 06:58:57</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1676,7 +1677,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:49</t>
+          <t xml:space="preserve"> 2023-07-14 18:22:02</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1693,7 +1694,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1703,7 +1704,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:51</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:08</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1720,7 +1721,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1730,7 +1731,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:53</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:10</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1747,7 +1748,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1757,7 +1758,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:28:56</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:13</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1774,7 +1775,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1784,7 +1785,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:29:00</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:23</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1801,22 +1802,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 09:29:03</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1828,22 +1829,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 13:44:07</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:28</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1855,22 +1856,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Bảo Bảo</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 13:41:24</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1892,7 +1893,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:13:46</t>
+          <t xml:space="preserve"> 2023-07-15 12:08:33</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1909,22 +1910,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Anh</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> daihostvlg</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:14:00</t>
+          <t xml:space="preserve"> 2023-07-17 17:40:36</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1936,7 +1937,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Group</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1946,7 +1947,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:31</t>
+          <t xml:space="preserve"> 2023-07-18 09:51:36</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1956,24 +1957,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thusuong.fb.vlg</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:33</t>
+          <t xml:space="preserve"> 2023-07-18 13:47:38</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1983,105 +1984,105 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> quoctoan590</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:36</t>
+          <t xml:space="preserve"> 2023-07-25 12:02:06</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> quoctoan950</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:37</t>
+          <t xml:space="preserve"> 2023-07-25 12:02:32</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhnhan879bm</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:39</t>
+          <t xml:space="preserve"> 2023-07-25 12:06:20</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhnhan879bm</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:40</t>
+          <t xml:space="preserve"> 2023-07-25 12:09:33</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2091,51 +2092,51 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhtuan568bm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:42</t>
+          <t xml:space="preserve"> 2023-07-25 12:14:23</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> kimchung049bm</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:54</t>
+          <t xml:space="preserve"> 2023-07-25 12:15:49</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2145,51 +2146,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> kimchung049bm.vlg</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 16:16:58</t>
+          <t xml:space="preserve"> 2023-07-25 12:16:13</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> quoctoan950</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:39:53</t>
+          <t xml:space="preserve"> 2023-07-25 13:50:23</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2199,402 +2200,402 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> camxuan1bm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:15</t>
+          <t xml:space="preserve"> 2023-07-25 15:51:24</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thisambm-gp</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:29</t>
+          <t xml:space="preserve"> 2023-07-25 16:05:09</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> ngoclam428</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:33</t>
+          <t xml:space="preserve"> 2023-07-25 16:21:53</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhtrucmp5.fb.vlg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:35</t>
+          <t xml:space="preserve"> 2023-07-25 16:32:02</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> vanthang1bm</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:43</t>
+          <t xml:space="preserve"> 2023-07-25 16:40:02</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> vanthuybm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:45</t>
+          <t xml:space="preserve"> 2023-07-25 17:06:06</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> tuyentbh.fb.vlg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:46</t>
+          <t xml:space="preserve"> 2023-07-25 17:06:59</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> hang771bm</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:47</t>
+          <t xml:space="preserve"> 2023-07-25 17:14:12</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thihangbm-gp</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:49</t>
+          <t xml:space="preserve"> 2023-07-25 17:45:49</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> kimromp5.fb.vlg</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-10 19:40:51</t>
+          <t xml:space="preserve"> 2023-07-26 08:23:03</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> xuyenmp5.fb.vlg</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 10:18:15</t>
+          <t xml:space="preserve"> 2023-07-26 08:23:29</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> tin259bm</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 12:50:00</t>
+          <t xml:space="preserve"> 2023-07-26 09:54:54</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> thitrinh952bm</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 12:50:05</t>
+          <t xml:space="preserve"> 2023-07-26 10:21:03</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhsangtlfb.vlg</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 12:50:14</t>
+          <t xml:space="preserve"> 2023-07-26 10:21:06</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thutiensp.fb.vlg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 12:53:01</t>
+          <t xml:space="preserve"> 2023-07-26 10:28:13</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2604,24 +2605,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> nguyenthanhfb.vlg</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-11 18:59:33</t>
+          <t xml:space="preserve"> 2023-07-26 10:42:09</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2631,24 +2632,24 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> yenngocfb.vlg</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:36:24</t>
+          <t xml:space="preserve"> 2023-07-26 10:53:52</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2658,294 +2659,294 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thuan774bm</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:49:23</t>
+          <t xml:space="preserve"> 2023-07-26 11:05:07</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> liem966bmh.vlg</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:35</t>
+          <t xml:space="preserve"> 2023-07-26 11:31:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> vantung711</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:38</t>
+          <t xml:space="preserve"> 2023-07-26 11:31:21</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Ng V Th Dat</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> canhtuc956bm</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:43</t>
+          <t xml:space="preserve"> 2023-07-26 11:31:29</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thichinh675bm</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:45</t>
+          <t xml:space="preserve"> 2023-07-26 11:45:19</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thitrinh675bm</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:49</t>
+          <t xml:space="preserve"> 2023-07-26 11:47:00</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> ngocloitb.fb.vlg</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 11:58:53</t>
+          <t xml:space="preserve"> 2023-07-26 14:00:15</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> thikiemfb.vlg</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 12:00:16</t>
+          <t xml:space="preserve"> 2023-07-26 14:04:18</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> duongchuc-gpon</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 12:00:22</t>
+          <t xml:space="preserve"> 2023-07-26 16:23:41</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhtung72-wifi</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 12:33:08</t>
+          <t xml:space="preserve"> 2023-07-26 16:25:22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> tantai-l28</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 21:47:30</t>
+          <t xml:space="preserve"> 2023-07-26 16:33:04</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2955,186 +2956,186 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daishotvlg</t>
+          <t xml:space="preserve"> thinhan1-gpon</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-12 21:54:00</t>
+          <t xml:space="preserve"> 2023-07-26 16:33:55</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Mai Thinh</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihost vlg</t>
+          <t xml:space="preserve"> vandiepml.fb.vlg</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 15:07:24</t>
+          <t xml:space="preserve"> 2023-07-26 16:38:00</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TBH</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> chuchien-gp</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 15:07:44</t>
+          <t xml:space="preserve"> 2023-07-26 16:38:50</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> kimnen1-gp</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 15:10:32</t>
+          <t xml:space="preserve"> 2023-07-26 16:41:38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> hanhu-gp</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 15:11:01</t>
+          <t xml:space="preserve"> 2023-07-26 16:42:44</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> anhdung83-gpon</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 16:25:31</t>
+          <t xml:space="preserve"> 2023-07-26 16:47:54</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> phuonglinh1994-gp</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 16:47:48</t>
+          <t xml:space="preserve"> 2023-07-26 16:48:25</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3144,375 +3145,380 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> quoctinh1-gpon</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 16:49:11</t>
+          <t xml:space="preserve"> 2023-07-26 16:54:45</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> thanhhoa39-gp</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 16:49:18</t>
+          <t xml:space="preserve"> 2023-07-26 17:07:01</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> ngochanh54-gp</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 18:59:59</t>
+          <t xml:space="preserve"> 2023-07-26 17:07:28</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> gpon-tuyen</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 20:04:35</t>
+          <t xml:space="preserve"> 2023-07-26 17:31:22</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>thu Hong</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> truongnhatbm-gp</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 20:04:39</t>
+          <t xml:space="preserve"> 2023-07-26 17:39:51</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-BMH</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> dienthanh-gpon</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 20:04:42</t>
+          <t xml:space="preserve"> 2023-07-26 17:48:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> phuocloc1-gp</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-13 20:04:44</t>
+          <t xml:space="preserve"> 2023-07-26 17:57:26</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhtu-gpon</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-14 06:12:27</t>
+          <t>nguyenphanhoaibao-gp</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> 2023-07-26 18:11:47</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thanhtu-gpon</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-14 06:58:35</t>
+          <t xml:space="preserve"> 2023-07-26 18:12:07</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> nguyenphanhoaibao-gp</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-14 06:58:57</t>
+          <t xml:space="preserve"> 2023-07-26 18:12:32</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lập Thuận</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> vanhat-wifi</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-14 18:22:02</t>
+          <t xml:space="preserve"> 2023-07-26 18:38:32</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> letrung-gp</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:08</t>
+          <t xml:space="preserve"> 2023-07-26 18:39:24</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thuylan-gpon</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:10</t>
+          <t xml:space="preserve"> 2023-07-26 18:57:21</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> hongvan1-gp</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:13</t>
+          <t xml:space="preserve"> 2023-07-26 19:26:48</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3522,169 +3528,2415 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> thientrang84-gp</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:23</t>
+          <t xml:space="preserve"> 2023-07-26 19:27:25</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> ctynamdu</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:25</t>
+          <t xml:space="preserve"> 2023-07-26 19:27:55</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> thetri-vlg</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:28</t>
+          <t xml:space="preserve"> 2023-07-26 19:32:13</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> taolaoxidutaolaoxidu</t>
+          <t xml:space="preserve"> duylinh91-gp</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:30</t>
+          <t xml:space="preserve"> 2023-07-26 19:32:48</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Bảo Bảo</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> tanhienvincom</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-15 12:08:33</t>
+          <t xml:space="preserve"> 2023-07-26 19:38:11</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Anh</t>
+          <t>Kim Ngan Le</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> daihostvlg</t>
+          <t xml:space="preserve"> gpon-cuong</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2023-07-17 17:40:36</t>
+          <t xml:space="preserve"> 2023-07-26 19:59:31</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+          <t xml:space="preserve"> Mở cước thành công</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Group: Test app</t>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mynhi1996-gp</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-26 20:10:04</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> oanhoanh-gpon</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-26 20:25:32</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thanhcung.vlg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-26 20:33:06</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> minhhai-gp</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-26 20:57:02</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Ng V Th Dat</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thibichbm-gp</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 07:39:03</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> huonghuyen-gp</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 08:13:48</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> huongthuy54-gp</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 08:15:21</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> phuongthao-fb</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 08:54:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ngocduy-vlg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 08:54:30</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbkimyenab</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 09:06:18</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbbichthuyhpu</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 09:13:29</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanthien-gp</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 09:14:36</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> dat-gpon</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 09:17:54</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbdoanvansanh</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 09:35:02</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> baotoan243-ptb</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:24:15</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> baotoan243-ptb</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:24:59</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> toan243-ptb</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:25:36</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbkimloanhn</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:49:01</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tam81-gp</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:52:43</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> trongnghia137-gp</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 10:55:41</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> phuongthao-fb</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 11:16:13</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hoaibao1-gp</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 11:42:01</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ngoctuyet-gpon</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 12:17:31</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hoangson39-wifi</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 12:18:39</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> congbinh-vl</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 12:19:02</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvanhung456</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 13:08:55</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvudinhhn</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 13:29:05</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> mongtrinh-gp</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 13:31:53</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thithoi1021fb.vlg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 13:32:50</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvanhung456</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 14:05:16</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vietphucmedi-gpon</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 14:22:17</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>thu Hong</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nam851bm</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 14:59:01</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbthuykieulpc.vlg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:04:35</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanvincom</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:17:29</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanxoan-gp</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:30:08</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanxoan-fb</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:30:25</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thaoquyen-gp</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:39:27</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbthanhcong8m</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 16:52:22</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanxoan-fp</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 17:14:49</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanxoan-fb</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 17:15:54</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbtuyetnhungthh</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 18:53:06</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbbangtuyenbhp</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 18:58:44</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fb8dathaolho</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 18:59:49</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvudatlpc.vlg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 19:00:30</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> anhnghi2211-gp</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 20:00:10</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> hongtuoi-gp</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-27 20:23:04</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tutrinh74-gpon</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 07:33:28</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quang67-gp</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 07:53:26</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tuquochuy-gp</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 09:19:41</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chanhan-gp</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 09:20:25</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chanhan-gp</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tuquochuy-gp</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 09:21:03</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Pham PhucPham</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chanhan-gp</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 09:21:54</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nhi-gpon</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 09:44:58</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nhuttuan-gp</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 10:06:14</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Không tìm thấy tài khoản này</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nhattuan-gp</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 10:06:34</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvanhung456</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 10:28:33</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thanhtam-wfi</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 12:47:54</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> camvan73-gp</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 13:37:08</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbbuivanloc</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 14:20:41</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>thu Hong</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vantam594</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 14:32:37</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ltthuong616</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 14:34:45</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbphivanem</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 16:32:17</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbtrankieuanh</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-28 16:49:36</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vantrabn.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-29 07:04:31</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Ng V Th Dat</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thigam289</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-29 08:44:57</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> liem914123-gp</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-29 09:02:21</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tranbelua-gp</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-29 09:21:24</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> pcongchung-gp</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-30 14:29:04</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fblephuonghn</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-30 18:20:24</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbnguyenthanhdp</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-30 20:17:57</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>thu Hong</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> maithao446bm</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 07:35:13</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vansanh370-gp</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 09:38:29</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thumy-gpon</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 10:07:13</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>thu Hong</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vandat154bm</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 10:23:03</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ngochoa12.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 10:43:58</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbngochithanh</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-07-31 14:01:19</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbhoangsadp</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-01 14:37:54</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> huudanh-gp</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-01 15:29:17</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Kim Ngan Le</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> taihung-gpon</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-01 16:37:41</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TP.VLG</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> minhquang0522.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-02 16:37:01</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbmyhangcdi</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-03 08:02:09</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>thu Hong</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> nam851bm</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-03 15:40:26</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Nhi Pham</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvansauhn</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2023-08-04 18:33:52</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-LHO</t>
         </is>
       </c>
     </row>

--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4282,6 +4282,303 @@
         </is>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ng V Th Dat</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thinhanhbm-gp</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 08:42:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-BMH</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> fbvantuan</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 08:51:09</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> huynhcuongfb.vlg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 08:54:57</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thuyvy.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 10:23:30</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> vanbupl.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 11:07:33</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> kimlefbvlg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 12:14:55</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> tamsp.vlg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 12:15:59</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> kimhang0523.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 13:20:40</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> phuc0623fb.vlg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 16:46:25</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> thuyan.fb.vlg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 17:44:12</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Mai Thinh</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> voliemfb.vlg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-03-26 18:27:54</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mở cước thành công</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Group: KhoaMoCuoc-TBH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/du_lieu.xlsx
+++ b/du_lieu.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4579,6 +4579,87 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>L T</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-05-07 18:18:52</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Group: Test</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>L T</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-05-07 19:47:57</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Chat trực tiếp với Bot</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>L T</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> daihostvlg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2024-05-07 20:49:40</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tài khoản đã mở cước - Không thể thực hiện mở cước</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Group: Test</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
